--- a/InputData/bldgs/RPbBCT/Rebate Perc by Building Component Type.xlsx
+++ b/InputData/bldgs/RPbBCT/Rebate Perc by Building Component Type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\bldgs\RPbBCT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/bldgs/rpbbct/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5188199D-076B-459F-9A6C-A672B4FCF82B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233B91ED-B1A5-2548-B18C-B53DC99F1BAF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1335" yWindow="945" windowWidth="24765" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1340" yWindow="580" windowWidth="24760" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -192,7 +192,7 @@
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="173" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -335,7 +335,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -362,8 +362,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Body: normal cell" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -711,21 +712,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="58.42578125" customWidth="1"/>
+    <col min="2" max="2" width="58.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="18">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -733,107 +737,107 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="6">
         <v>2015</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" s="6">
         <v>2011</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="16">
         <v>1.2477934782608695</v>
       </c>
@@ -857,15 +861,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="29.5" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>44</v>
       </c>
@@ -873,12 +877,12 @@
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -892,7 +896,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -907,7 +911,7 @@
         <v>0.13812785388127855</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -922,7 +926,7 @@
         <v>7.0079813120498352E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -937,12 +941,12 @@
         <v>0.17269439421338156</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>30</v>
       </c>
@@ -950,12 +954,12 @@
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>22</v>
       </c>
@@ -967,7 +971,7 @@
       </c>
       <c r="D15" s="15"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -980,7 +984,7 @@
       </c>
       <c r="D16" s="14"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -993,7 +997,7 @@
       </c>
       <c r="D17" s="14"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -1005,7 +1009,7 @@
         <v>63.188261739130432</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -1024,15 +1028,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>12</v>
       </c>
@@ -1046,7 +1050,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1063,7 +1067,7 @@
         <v>7.0079813120498352E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1080,7 +1084,7 @@
         <v>7.0079813120498352E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1096,7 +1100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1112,7 +1116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1129,7 +1133,7 @@
         <v>0.13812785388127855</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1145,7 +1149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
       <c r="D8" s="10"/>
